--- a/biology/Zoologie/Acheilognathus/Acheilognathus.xlsx
+++ b/biology/Zoologie/Acheilognathus/Acheilognathus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Acheilognathus est un genre de poissons téléostéens de la famille des Cyprinidae et de l'ordre des Cypriniformes. Acheilognathus est un genre de cyprinidés originaire d'Asie. Le nom est dérivé du grec, signifiant « sans », du grec « cheilos » qui signifie « lèvre » et du grec « gnathos » qui signifie « mâchoire ».
 </t>
@@ -511,7 +523,9 @@
           <t>Morphologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les poissons de ce genre ont une longueur comprise entre 5 et 27 cm pour les plus grandes espèces. Ils sont relativement petits et de forme standard ressemblant tous au genre Puntius.
 </t>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon FishBase                                           (14 avril 2017)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon FishBase                                           (14 avril 2017) :
 Acheilognathus asmussii (Dybowski, 1872)
 Acheilognathus barbatulus Günther, 1873
 Acheilognathus barbatus Nichols, 1926
